--- a/public/sample/sample-classroom.xlsx
+++ b/public/sample/sample-classroom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achdi\WebProject\riab-app\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryansyah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730D0A85-7F36-46C3-8B20-73E025B10DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9ED7C-FE0C-4CD4-9AF9-C6BC270C29D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F92366D9-262D-4090-A28E-6632C6CB0E73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F92366D9-262D-4090-A28E-6632C6CB0E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>agama</t>
+  </si>
+  <si>
+    <t>username_wali_tahfidz</t>
+  </si>
+  <si>
+    <t>username_wali_kelas</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A9D95-4087-4AD6-B4A0-559F803235EE}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,9 +485,11 @@
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -494,8 +505,14 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -511,8 +528,14 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -528,8 +551,14 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -545,8 +574,14 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -562,8 +597,14 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -579,8 +620,14 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -596,8 +643,14 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -613,8 +666,14 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -629,6 +688,12 @@
       </c>
       <c r="E9" t="s">
         <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
